--- a/medicine/Enfance/Sokhna_Benga/Sokhna_Benga.xlsx
+++ b/medicine/Enfance/Sokhna_Benga/Sokhna_Benga.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sokhna Benga ou Sokhna Mbengue, née le 12 décembre 1967 à Dakar, est une femme de lettres sénégalaise, également éditrice. Elle est juriste en droit maritime de formation.
 </t>
@@ -513,15 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Fille d'un père journaliste, écrivain, dramaturge, Ibrahima Mbengue[1], Sokhna Benga née Mbengue a fait ses études maternelles aux Martyrs de l’Ouganda, primaires à l’école Sainte-Bernadette, secondaires à la Maison d'éducation Mariama Bâ de Gorée.
-Elle obtient ensuite une licence en droit des affaires, en 1990, et une maîtrise en droit des affaires, options transports et assurances en 1991, à l’Université Cheikh-Anta-Diop de Dakar, puis un DESS de droit des activités maritimes à l’Université de Bretagne occidentale en 1996[1],[2].
-Carrière juridique
-Juriste spécialisée en Droit des activités maritimes, elle est administrateur des Affaires maritimes[1] et occupe successivement les postes de Chef de la Circonscription maritime de Dakar, Chef du service des Affaires juridiques et de la coopération, Chef du service des Affaires juridiques, Chef du Département des Affaires juridiques et de la Coopération, Directrice des Opérations maritimes, Directrice de la Sécurité maritime et de la prévention de la pollution marine à l'Agence nationale des Affaires maritimes (ANAM) (anciennement Direction de la Marine marchande). Elle est actuellement directrice des Transports maritimes et fluviaux et des Ports et coordonnatrice des Circonscriptions maritimes régionales (CIRCAM) au sein de la même agence[Selon qui ?].
-Carrière littéraire
-Elle se consacre en parallèle à l'écriture. Auteure de vingt-six ouvrages (romans, nouvelles, poèmes), elle remporte de nombreux prix et distinctions littéraires nationales et internationales dont le Grand prix du Président de la République pour les lettres avec son roman La Balade du Sabador en 2000[3], une bourse du Centre national du livre français, la Mission Stendhal pour sa dernière trilogie Waly Nguilane, le protégé de Roog. Elle a été directrice littéraire des Nouvelles éditions africaines du Sénégal de 2002 à 2005. Elle est scénariste[Selon qui ?].
-Elle a été membre du Conseil national de régulation de l'audiovisuel de  2012 à 2018  pour représenter le monde des lettres[2].
-Elle est officier de l’Ordre des Arts et des Lettres et Chevalier de l’Ordre national du Lion du Sénégal[2].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fille d'un père journaliste, écrivain, dramaturge, Ibrahima Mbengue, Sokhna Benga née Mbengue a fait ses études maternelles aux Martyrs de l’Ouganda, primaires à l’école Sainte-Bernadette, secondaires à la Maison d'éducation Mariama Bâ de Gorée.
+Elle obtient ensuite une licence en droit des affaires, en 1990, et une maîtrise en droit des affaires, options transports et assurances en 1991, à l’Université Cheikh-Anta-Diop de Dakar, puis un DESS de droit des activités maritimes à l’Université de Bretagne occidentale en 1996,.
 </t>
         </is>
       </c>
@@ -547,13 +558,94 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière juridique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Juriste spécialisée en Droit des activités maritimes, elle est administrateur des Affaires maritimes et occupe successivement les postes de Chef de la Circonscription maritime de Dakar, Chef du service des Affaires juridiques et de la coopération, Chef du service des Affaires juridiques, Chef du Département des Affaires juridiques et de la Coopération, Directrice des Opérations maritimes, Directrice de la Sécurité maritime et de la prévention de la pollution marine à l'Agence nationale des Affaires maritimes (ANAM) (anciennement Direction de la Marine marchande). Elle est actuellement directrice des Transports maritimes et fluviaux et des Ports et coordonnatrice des Circonscriptions maritimes régionales (CIRCAM) au sein de la même agence[Selon qui ?].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sokhna_Benga</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sokhna_Benga</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière littéraire</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle se consacre en parallèle à l'écriture. Auteure de vingt-six ouvrages (romans, nouvelles, poèmes), elle remporte de nombreux prix et distinctions littéraires nationales et internationales dont le Grand prix du Président de la République pour les lettres avec son roman La Balade du Sabador en 2000, une bourse du Centre national du livre français, la Mission Stendhal pour sa dernière trilogie Waly Nguilane, le protégé de Roog. Elle a été directrice littéraire des Nouvelles éditions africaines du Sénégal de 2002 à 2005. Elle est scénariste[Selon qui ?].
+Elle a été membre du Conseil national de régulation de l'audiovisuel de  2012 à 2018  pour représenter le monde des lettres.
+Elle est officier de l’Ordre des Arts et des Lettres et Chevalier de l’Ordre national du Lion du Sénégal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sokhna_Benga</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sokhna_Benga</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans
-Le Dard du secret, Éditions Khoudia, 1990, Grand prix de la commune de Dakar pour les Lettres
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le Dard du secret, Éditions Khoudia, 1990, Grand prix de la commune de Dakar pour les Lettres
 La Balade du Sabador, Le Gai Ramatou Fictions, 2000, (autoédité), Grand prix du chef de l'État pour les Lettres ; Mention spéciale Grand prix littéraire d'Afrique noire de l’ADELF (Association des Écrivains de Langue française), NEAS 2004
 RééditionLa Balade du Sabador, Nouvelles Editions africaines, NEAS 2004
 Waly Nguilane, le protégé de Roog 1, Nouvelles éditions africaines du Sénégal, Mission Stendhal du Ministère français des Affaires Étrangères.
@@ -566,14 +658,82 @@
 Bris d'ombre (roman) Editions Feu de brousse 2014..
 RééditionBris d'ombre (roman)  Harmattan Sénégal 2016.
 Il segretto de Ninkinnaka (l’or de Ninkinanka) (roman); version italienne: Modu Modu, Trepuzzi, 2015.
-L'or de Ninkinanka (roman), version française, Teham wakam, 2018.
-Poésie
-Anthologie « Paroles partagées », Éditions Feu de Brousse, 2005 (MAPI)
+L'or de Ninkinanka (roman), version française, Teham wakam, 2018.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sokhna_Benga</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sokhna_Benga</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Anthologie « Paroles partagées », Éditions Feu de Brousse, 2005 (MAPI)
 La ronde des secrets perdus, Éditions Maguilen, 2003
 Anthologie de la poésie sénégalaise (poésie), Éditions Maguilen, (PEN International), 2003
-Les cris fauves de ma ville (poésie), Editions Renaissance, 2016.
-Scénarios
-Le livre dans la bibliothèque, scénario du film du même titre, Prix Fellini-UNESCO 2005 (film pour enfants, en coécriture avec Moustapha Seck)
+Les cris fauves de ma ville (poésie), Editions Renaissance, 2016.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sokhna_Benga</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sokhna_Benga</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le livre dans la bibliothèque, scénario du film du même titre, Prix Fellini-UNESCO 2005 (film pour enfants, en coécriture avec Moustapha Seck)
 Fièvre sur Dakar
 Jeux de massacre
 Coumba (anciennement Teen bi), coauteure
@@ -583,9 +743,43 @@
 L'or de Ninkinanka.
 La balade du Salvador.
 Gangrène long métrage.
-Raky fille du vent.
-Jeunesse
-Collection Fadia Fadia à Poukham, Éditions Oxyzone 2010 Jeunesse
+Raky fille du vent.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sokhna_Benga</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sokhna_Benga</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Collection Fadia Fadia à Poukham, Éditions Oxyzone 2010 Jeunesse
 Collection Fadia Fadia et les outres du ciel, Éditions Oxyzone 2010 Jeunesse
 Collection Fadia Fadia s'imagine tant de choses, Éditions Oxyzone 2010 Jeunesse
 Collection Fadia Fadia connaît la sècheresse, Éditions Oxyzone 2010 Jeunesse
